--- a/Data/porosity/porosity.xlsx
+++ b/Data/porosity/porosity.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-20" windowWidth="38400" windowHeight="21200" tabRatio="500" activeTab="1"/>
@@ -327,22 +327,22 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
-                <c:pt idx="0" formatCode="#,#00%">
+                <c:pt idx="0" formatCode="0.0%">
                   <c:v>0.346938775510204</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="#,#00%">
+                <c:pt idx="3" formatCode="0.0%">
                   <c:v>0.383673469387755</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="#,#00%">
+                <c:pt idx="6" formatCode="0.0%">
                   <c:v>0.463265306122449</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="#,#00%">
-                  <c:v>0.363265306122449</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="#,#00%">
+                <c:pt idx="9" formatCode="0.0%">
+                  <c:v>0.361224489795918</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.0%">
                   <c:v>0.389795918367347</c:v>
                 </c:pt>
-                <c:pt idx="15" formatCode="#,#00%">
+                <c:pt idx="15" formatCode="0.0%">
                   <c:v>0.371428571428571</c:v>
                 </c:pt>
               </c:numCache>
@@ -396,22 +396,22 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
-                <c:pt idx="0" formatCode="#,#00%">
-                  <c:v>0.348979591836735</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="#,#00%">
-                  <c:v>0.397959183673469</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="#,#00%">
-                  <c:v>0.473469387755102</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="#,#00%">
+                <c:pt idx="0" formatCode="0.0%">
+                  <c:v>0.363265306122449</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.0%">
+                  <c:v>0.408163265306122</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.0%">
+                  <c:v>0.489795918367347</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0%">
                   <c:v>0.371428571428571</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="#,#00%">
+                <c:pt idx="12" formatCode="0.0%">
                   <c:v>0.402040816326531</c:v>
                 </c:pt>
-                <c:pt idx="15" formatCode="#,#00%">
+                <c:pt idx="15" formatCode="0.0%">
                   <c:v>0.383673469387755</c:v>
                 </c:pt>
               </c:numCache>
@@ -465,23 +465,23 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
-                <c:pt idx="0" formatCode="#,#00%">
-                  <c:v>0.347959183673469</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="#,#00%">
-                  <c:v>0.390816326530612</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="#,#00%">
-                  <c:v>0.468367346938775</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="#,#00%">
-                  <c:v>0.36734693877551</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="#,#00%">
-                  <c:v>0.395918367346939</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="#,#00%">
-                  <c:v>0.377551020408163</c:v>
+                <c:pt idx="0" formatCode="0.0%">
+                  <c:v>0.353061224489796</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.0%">
+                  <c:v>0.396598639455782</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.0%">
+                  <c:v>0.475510204081633</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0%">
+                  <c:v>0.36530612244898</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.0%">
+                  <c:v>0.395238095238095</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.0%">
+                  <c:v>0.379591836734694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -496,11 +496,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2095103064"/>
-        <c:axId val="2095106152"/>
+        <c:axId val="-2143178072"/>
+        <c:axId val="-2143175064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2095103064"/>
+        <c:axId val="-2143178072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -519,7 +519,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2095106152"/>
+        <c:crossAx val="-2143175064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -527,14 +527,14 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2095106152"/>
+        <c:axId val="-2143175064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="#,#00%" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -548,14 +548,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2095103064"/>
+        <c:crossAx val="-2143178072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1149,7 +1148,7 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1236,15 +1235,15 @@
       </c>
       <c r="L2" s="5">
         <f>MEDIAN(I2:I4)</f>
-        <v>0.3479591836734694</v>
+        <v>0.34897959183673466</v>
       </c>
       <c r="M2" s="5">
         <f>MAX(I2:I4)</f>
-        <v>0.34897959183673466</v>
+        <v>0.36326530612244901</v>
       </c>
       <c r="N2" s="5">
         <f>AVERAGE(I2:I4)</f>
-        <v>0.3479591836734694</v>
+        <v>0.35306122448979593</v>
       </c>
       <c r="P2" t="str">
         <f>A2</f>
@@ -1277,16 +1276,22 @@
       <c r="B4">
         <v>5</v>
       </c>
+      <c r="C4">
+        <v>19</v>
+      </c>
       <c r="F4">
         <v>500</v>
       </c>
-      <c r="H4" t="str">
+      <c r="G4">
+        <v>812</v>
+      </c>
+      <c r="H4">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I4" s="4" t="str">
+        <v>312</v>
+      </c>
+      <c r="I4" s="4">
         <f>IF(H4&lt;&gt;"",1-H4/'sample size'!$B$21,"")</f>
-        <v/>
+        <v>0.36326530612244901</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1319,18 +1324,18 @@
       </c>
       <c r="L5" s="5">
         <f>MEDIAN(I5:I7)</f>
-        <v>0.39081632653061227</v>
+        <v>0.39795918367346939</v>
       </c>
       <c r="M5" s="5">
         <f>MAX(I5:I7)</f>
-        <v>0.39795918367346939</v>
+        <v>0.40816326530612246</v>
       </c>
       <c r="N5" s="5">
         <f>AVERAGE(I5:I7)</f>
-        <v>0.39081632653061227</v>
+        <v>0.39659863945578233</v>
       </c>
       <c r="P5" t="str">
-        <f t="shared" ref="P3:P17" si="1">A5</f>
+        <f t="shared" ref="P5:P17" si="1">A5</f>
         <v>intertidal_north</v>
       </c>
     </row>
@@ -1360,16 +1365,22 @@
       <c r="B7">
         <v>8</v>
       </c>
+      <c r="C7">
+        <v>17</v>
+      </c>
       <c r="F7">
         <v>500</v>
       </c>
-      <c r="H7" t="str">
+      <c r="G7">
+        <v>790</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I7" s="4" t="str">
+        <v>290</v>
+      </c>
+      <c r="I7" s="4">
         <f>IF(H7&lt;&gt;"",1-H7/'sample size'!$B$21,"")</f>
-        <v/>
+        <v>0.40816326530612246</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1402,15 +1413,15 @@
       </c>
       <c r="L8" s="5">
         <f>MEDIAN(I8:I10)</f>
-        <v>0.46836734693877552</v>
+        <v>0.47346938775510206</v>
       </c>
       <c r="M8" s="5">
         <f>MAX(I8:I10)</f>
-        <v>0.47346938775510206</v>
+        <v>0.48979591836734693</v>
       </c>
       <c r="N8" s="5">
         <f>AVERAGE(I8:I10)</f>
-        <v>0.46836734693877552</v>
+        <v>0.47551020408163264</v>
       </c>
       <c r="P8" t="str">
         <f t="shared" si="1"/>
@@ -1443,16 +1454,22 @@
       <c r="B10">
         <v>11</v>
       </c>
+      <c r="C10">
+        <v>18</v>
+      </c>
       <c r="F10">
         <v>500</v>
       </c>
-      <c r="H10" t="str">
+      <c r="G10">
+        <v>750</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I10" s="4" t="str">
+        <v>250</v>
+      </c>
+      <c r="I10" s="4">
         <f>IF(H10&lt;&gt;"",1-H10/'sample size'!$B$21,"")</f>
-        <v/>
+        <v>0.48979591836734693</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1481,11 +1498,11 @@
       </c>
       <c r="K11" s="5">
         <f>MIN(I11:I13)</f>
-        <v>0.36326530612244901</v>
+        <v>0.36122448979591837</v>
       </c>
       <c r="L11" s="5">
         <f>MEDIAN(I11:I13)</f>
-        <v>0.36734693877551022</v>
+        <v>0.36326530612244901</v>
       </c>
       <c r="M11" s="5">
         <f>MAX(I11:I13)</f>
@@ -1493,7 +1510,7 @@
       </c>
       <c r="N11" s="5">
         <f>AVERAGE(I11:I13)</f>
-        <v>0.36734693877551022</v>
+        <v>0.36530612244897959</v>
       </c>
       <c r="P11" t="str">
         <f t="shared" si="1"/>
@@ -1526,16 +1543,22 @@
       <c r="B13">
         <v>14</v>
       </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
       <c r="F13">
         <v>500</v>
       </c>
-      <c r="H13" t="str">
+      <c r="G13">
+        <v>813</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I13" s="4" t="str">
+        <v>313</v>
+      </c>
+      <c r="I13" s="4">
         <f>IF(H13&lt;&gt;"",1-H13/'sample size'!$B$21,"")</f>
-        <v/>
+        <v>0.36122448979591837</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1568,7 +1591,7 @@
       </c>
       <c r="L14" s="5">
         <f>MEDIAN(I14:I16)</f>
-        <v>0.3959183673469388</v>
+        <v>0.39387755102040811</v>
       </c>
       <c r="M14" s="5">
         <f>MAX(I14:I16)</f>
@@ -1576,7 +1599,7 @@
       </c>
       <c r="N14" s="5">
         <f>AVERAGE(I14:I16)</f>
-        <v>0.3959183673469388</v>
+        <v>0.39523809523809522</v>
       </c>
       <c r="P14" t="str">
         <f t="shared" si="1"/>
@@ -1609,16 +1632,22 @@
       <c r="B16">
         <v>17</v>
       </c>
+      <c r="C16">
+        <v>17</v>
+      </c>
       <c r="F16">
         <v>500</v>
       </c>
-      <c r="H16" t="str">
+      <c r="G16">
+        <v>797</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I16" s="4" t="str">
+        <v>297</v>
+      </c>
+      <c r="I16" s="4">
         <f>IF(H16&lt;&gt;"",1-H16/'sample size'!$B$21,"")</f>
-        <v/>
+        <v>0.39387755102040811</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1651,7 +1680,7 @@
       </c>
       <c r="L17" s="5">
         <f>MEDIAN(I17:I19)</f>
-        <v>0.3775510204081633</v>
+        <v>0.38367346938775515</v>
       </c>
       <c r="M17" s="5">
         <f>MAX(I17:I19)</f>
@@ -1659,7 +1688,7 @@
       </c>
       <c r="N17" s="5">
         <f>AVERAGE(I17:I19)</f>
-        <v>0.3775510204081633</v>
+        <v>0.37959183673469393</v>
       </c>
       <c r="P17" t="str">
         <f t="shared" si="1"/>
@@ -1692,16 +1721,22 @@
       <c r="B19">
         <v>20</v>
       </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
       <c r="F19">
         <v>500</v>
       </c>
-      <c r="H19" t="str">
+      <c r="G19">
+        <v>802</v>
+      </c>
+      <c r="H19">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I19" s="4" t="str">
+        <v>302</v>
+      </c>
+      <c r="I19" s="4">
         <f>IF(H19&lt;&gt;"",1-H19/'sample size'!$B$21,"")</f>
-        <v/>
+        <v>0.38367346938775515</v>
       </c>
     </row>
   </sheetData>
